--- a/data/MASTER_FILE_AKSHAY.xlsx
+++ b/data/MASTER_FILE_AKSHAY.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Name of State</t>
   </si>
@@ -34,7 +34,13 @@
     <t>Andhra</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: the above data is DUMMY DATA for structure reference purpose, delete this data after understading the structure </t>
+    <t xml:space="preserve">Note: this data is DUMMY DATA for structure reference purpose, delete this data after understading the structure </t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>and so on.. For all states…</t>
   </si>
 </sst>
 </file>
@@ -385,21 +391,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -433,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -450,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -467,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -484,7 +491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -500,8 +507,11 @@
       <c r="E6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -518,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -535,7 +545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -552,7 +562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -569,7 +579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -586,7 +596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -603,9 +613,196 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2003</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>2004</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2005</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2006</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2007</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2008</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2009</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2010</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>2012</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>2013</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/MASTER_FILE_AKSHAY.xlsx
+++ b/data/MASTER_FILE_AKSHAY.xlsx
@@ -14,40 +14,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Name of State</t>
   </si>
   <si>
-    <t xml:space="preserve">Year </t>
-  </si>
-  <si>
-    <t>No. of tourists</t>
-  </si>
-  <si>
-    <t>No. Of hotel rooms</t>
-  </si>
-  <si>
-    <t>No. of Crimes</t>
-  </si>
-  <si>
-    <t>Andhra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: this data is DUMMY DATA for structure reference purpose, delete this data after understading the structure </t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>and so on.. For all states…</t>
+    <t>DOMESTIC 2008</t>
+  </si>
+  <si>
+    <t>FOREIGN 2008</t>
+  </si>
+  <si>
+    <t>HOTEL ROOMS 2008</t>
+  </si>
+  <si>
+    <t>CRIME TOTAL 2008</t>
+  </si>
+  <si>
+    <t>ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t>ARUNACHAL PRADESH</t>
+  </si>
+  <si>
+    <t>ASSAM</t>
+  </si>
+  <si>
+    <t>BIHAR</t>
+  </si>
+  <si>
+    <t>CHHATTISGARH</t>
+  </si>
+  <si>
+    <t>GOA</t>
+  </si>
+  <si>
+    <t>GUJARAT</t>
+  </si>
+  <si>
+    <t>HARYANA</t>
+  </si>
+  <si>
+    <t>HIMACHAL PRADESH</t>
+  </si>
+  <si>
+    <t>JAMMU &amp; KASHMIR</t>
+  </si>
+  <si>
+    <t>JHARKHAND</t>
+  </si>
+  <si>
+    <t>KARNATAKA</t>
+  </si>
+  <si>
+    <t>KERALA</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>MANIPUR</t>
+  </si>
+  <si>
+    <t>MEGHALAYA</t>
+  </si>
+  <si>
+    <t>MIZORAM</t>
+  </si>
+  <si>
+    <t>NAGALAND</t>
+  </si>
+  <si>
+    <t>PUNJAB</t>
+  </si>
+  <si>
+    <t>RAJASTHAN</t>
+  </si>
+  <si>
+    <t>SIKKIM</t>
+  </si>
+  <si>
+    <t>TAMIL NADU</t>
+  </si>
+  <si>
+    <t>TRIPURA</t>
+  </si>
+  <si>
+    <t>UTTAR PRADESH</t>
+  </si>
+  <si>
+    <t>UTTARAKHAND</t>
+  </si>
+  <si>
+    <t>WEST BENGAL</t>
+  </si>
+  <si>
+    <t>CHANDIGARH</t>
+  </si>
+  <si>
+    <t>DAMAN &amp; DIU</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>LAKSHADWEEP</t>
+  </si>
+  <si>
+    <t>PUDUCHERRY</t>
+  </si>
+  <si>
+    <t>ORISSA</t>
+  </si>
+  <si>
+    <t>ANDAMAN AND NICOBAR</t>
+  </si>
+  <si>
+    <t>DADRA &amp; NAGAR HAVELI</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2009</t>
+  </si>
+  <si>
+    <t>FOREIGN 2009</t>
+  </si>
+  <si>
+    <t>HOTEL ROOMS 2009</t>
+  </si>
+  <si>
+    <t>CRIME TOTAL 2009</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2010</t>
+  </si>
+  <si>
+    <t>FOREIGN 2010</t>
+  </si>
+  <si>
+    <t>HOTEL ROOMS 2010</t>
+  </si>
+  <si>
+    <t>CRIME TOTAL 2010</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2011</t>
+  </si>
+  <si>
+    <t>FOREIGN 2011</t>
+  </si>
+  <si>
+    <t>HOTEL ROOMS 2011</t>
+  </si>
+  <si>
+    <t>CRIME TOTAL 2011</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2012</t>
+  </si>
+  <si>
+    <t>FOREIGN 2012</t>
+  </si>
+  <si>
+    <t>HOTEL ROOMS 2012</t>
+  </si>
+  <si>
+    <t>CRIME TOTAL 2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +203,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,15 +234,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -391,22 +548,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="18" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,387 +590,1279 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>2003</v>
+        <v>123914</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12512</v>
+      </c>
+      <c r="F2">
+        <v>142042</v>
+      </c>
+      <c r="G2">
+        <v>13684</v>
+      </c>
+      <c r="J2">
+        <v>180781</v>
+      </c>
+      <c r="K2">
+        <v>14615</v>
+      </c>
+      <c r="N2">
+        <v>202221</v>
+      </c>
+      <c r="O2">
+        <v>15814</v>
+      </c>
+      <c r="R2">
+        <v>238699</v>
+      </c>
+      <c r="S2">
+        <v>17538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2004</v>
+        <v>132684906</v>
       </c>
       <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
+        <v>789180</v>
+      </c>
+      <c r="F3">
+        <v>157489927</v>
+      </c>
+      <c r="G3">
+        <v>795173</v>
+      </c>
+      <c r="J3">
+        <v>155789584</v>
+      </c>
+      <c r="K3">
+        <v>322825</v>
+      </c>
+      <c r="N3">
+        <v>153119816</v>
+      </c>
+      <c r="O3">
+        <v>264563</v>
+      </c>
+      <c r="R3">
+        <v>206817895</v>
+      </c>
+      <c r="S3">
+        <v>292845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4">
-        <v>2005</v>
+        <v>149292</v>
       </c>
       <c r="C4">
+        <v>3020</v>
+      </c>
+      <c r="F4">
+        <v>195147</v>
+      </c>
+      <c r="G4">
+        <v>3945</v>
+      </c>
+      <c r="J4">
+        <v>227857</v>
+      </c>
+      <c r="K4">
+        <v>3395</v>
+      </c>
+      <c r="N4">
+        <v>233227</v>
+      </c>
+      <c r="O4">
+        <v>4753</v>
+      </c>
+      <c r="R4">
+        <v>317243</v>
+      </c>
+      <c r="S4">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="B5">
+        <v>3617306</v>
+      </c>
+      <c r="C5">
+        <v>14426</v>
+      </c>
+      <c r="F5">
+        <v>3850521</v>
+      </c>
+      <c r="G5">
+        <v>14942</v>
+      </c>
+      <c r="J5">
+        <v>4050924</v>
+      </c>
+      <c r="K5">
+        <v>15157</v>
+      </c>
+      <c r="N5">
+        <v>4339485</v>
+      </c>
+      <c r="O5">
+        <v>16400</v>
+      </c>
+      <c r="R5">
+        <v>4511407</v>
+      </c>
+      <c r="S5">
+        <v>17543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="B6">
+        <v>11889611</v>
+      </c>
+      <c r="C6">
+        <v>345572</v>
+      </c>
+      <c r="F6">
+        <v>15685581</v>
+      </c>
+      <c r="G6">
+        <v>423042</v>
+      </c>
+      <c r="J6">
+        <v>18491804</v>
+      </c>
+      <c r="K6">
+        <v>635722</v>
+      </c>
+      <c r="N6">
+        <v>18397490</v>
+      </c>
+      <c r="O6">
+        <v>972487</v>
+      </c>
+      <c r="R6">
+        <v>21447099</v>
+      </c>
+      <c r="S6">
+        <v>1096933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>908569</v>
+      </c>
+      <c r="C7">
+        <v>34762</v>
+      </c>
+      <c r="F7">
+        <v>914742</v>
+      </c>
+      <c r="G7">
+        <v>37967</v>
+      </c>
+      <c r="J7">
+        <v>905450</v>
+      </c>
+      <c r="K7">
+        <v>39333</v>
+      </c>
+      <c r="N7">
+        <v>909904</v>
+      </c>
+      <c r="O7">
+        <v>37181</v>
+      </c>
+      <c r="R7">
+        <v>924589</v>
+      </c>
+      <c r="S7">
+        <v>34130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2006</v>
-      </c>
-      <c r="C5">
+      <c r="B8">
+        <v>442910</v>
+      </c>
+      <c r="C8">
+        <v>1314</v>
+      </c>
+      <c r="F8">
+        <v>511561</v>
+      </c>
+      <c r="G8">
+        <v>1277</v>
+      </c>
+      <c r="J8">
+        <v>566298</v>
+      </c>
+      <c r="K8">
+        <v>1586</v>
+      </c>
+      <c r="N8">
+        <v>644425</v>
+      </c>
+      <c r="O8">
+        <v>1726</v>
+      </c>
+      <c r="R8">
+        <v>15036530</v>
+      </c>
+      <c r="S8">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>505380</v>
+      </c>
+      <c r="C9">
+        <v>5719</v>
+      </c>
+      <c r="F9">
+        <v>506625</v>
+      </c>
+      <c r="G9">
+        <v>7109</v>
+      </c>
+      <c r="J9">
+        <v>495575</v>
+      </c>
+      <c r="K9">
+        <v>1698</v>
+      </c>
+      <c r="N9">
+        <v>422265</v>
+      </c>
+      <c r="O9">
+        <v>1412</v>
+      </c>
+      <c r="R9">
+        <v>469213</v>
+      </c>
+      <c r="S9">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>465033</v>
+      </c>
+      <c r="C10">
+        <v>5266</v>
+      </c>
+      <c r="F10">
+        <v>563461</v>
+      </c>
+      <c r="G10">
+        <v>5748</v>
+      </c>
+      <c r="J10">
+        <v>774166</v>
+      </c>
+      <c r="K10">
+        <v>5139</v>
+      </c>
+      <c r="N10">
+        <v>832906</v>
+      </c>
+      <c r="O10">
+        <v>4484</v>
+      </c>
+      <c r="R10">
+        <v>803963</v>
+      </c>
+      <c r="S10">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>2132970</v>
+      </c>
+      <c r="C11">
+        <v>2339287</v>
+      </c>
+      <c r="F11">
+        <v>2041173</v>
+      </c>
+      <c r="G11">
+        <v>1958272</v>
+      </c>
+      <c r="J11">
+        <v>13558353</v>
+      </c>
+      <c r="K11">
+        <v>1893650</v>
+      </c>
+      <c r="N11">
+        <v>15428865</v>
+      </c>
+      <c r="O11">
+        <v>2159925</v>
+      </c>
+      <c r="R11">
+        <v>18495139</v>
+      </c>
+      <c r="S11">
+        <v>2345980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="B12">
+        <v>2020416</v>
+      </c>
+      <c r="C12">
+        <v>351123</v>
+      </c>
+      <c r="F12">
+        <v>2127063</v>
+      </c>
+      <c r="G12">
+        <v>376640</v>
+      </c>
+      <c r="J12">
+        <v>2201752</v>
+      </c>
+      <c r="K12">
+        <v>441053</v>
+      </c>
+      <c r="N12">
+        <v>2225002</v>
+      </c>
+      <c r="O12">
+        <v>445935</v>
+      </c>
+      <c r="R12">
+        <v>2337499</v>
+      </c>
+      <c r="S12">
+        <v>450530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="B13">
+        <v>15505264</v>
+      </c>
+      <c r="C13">
+        <v>110702</v>
+      </c>
+      <c r="F13">
+        <v>15909931</v>
+      </c>
+      <c r="G13">
+        <v>102747</v>
+      </c>
+      <c r="J13">
+        <v>18861296</v>
+      </c>
+      <c r="K13">
+        <v>130739</v>
+      </c>
+      <c r="N13">
+        <v>21017478</v>
+      </c>
+      <c r="O13">
+        <v>166042</v>
+      </c>
+      <c r="R13">
+        <v>24379023</v>
+      </c>
+      <c r="S13">
+        <v>174150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2007</v>
-      </c>
-      <c r="C6">
+      <c r="B14">
+        <v>5973123</v>
+      </c>
+      <c r="C14">
+        <v>87172</v>
+      </c>
+      <c r="F14">
+        <v>6408423</v>
+      </c>
+      <c r="G14">
+        <v>137094</v>
+      </c>
+      <c r="J14">
+        <v>6915269</v>
+      </c>
+      <c r="K14">
+        <v>106433</v>
+      </c>
+      <c r="N14">
+        <v>5988062</v>
+      </c>
+      <c r="O14">
+        <v>130435</v>
+      </c>
+      <c r="R14">
+        <v>6799242</v>
+      </c>
+      <c r="S14">
+        <v>233002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="B15">
+        <v>9372697</v>
+      </c>
+      <c r="C15">
+        <v>376736</v>
+      </c>
+      <c r="F15">
+        <v>11036572</v>
+      </c>
+      <c r="G15">
+        <v>400583</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="J15">
+        <v>12811986</v>
+      </c>
+      <c r="K15">
+        <v>453616</v>
+      </c>
+      <c r="N15">
+        <v>14604888</v>
+      </c>
+      <c r="O15">
+        <v>484518</v>
+      </c>
+      <c r="R15">
+        <v>15646048</v>
+      </c>
+      <c r="S15">
+        <v>500284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="B16">
+        <v>7638977</v>
+      </c>
+      <c r="C16">
+        <v>54697</v>
+      </c>
+      <c r="F16">
+        <v>9234862</v>
+      </c>
+      <c r="G16">
+        <v>54475</v>
+      </c>
+      <c r="J16">
+        <v>9973189</v>
+      </c>
+      <c r="K16">
+        <v>48099</v>
+      </c>
+      <c r="N16">
+        <v>13071531</v>
+      </c>
+      <c r="O16">
+        <v>71593</v>
+      </c>
+      <c r="R16">
+        <v>12427122</v>
+      </c>
+      <c r="S16">
+        <v>78802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2008</v>
-      </c>
-      <c r="C7">
+      <c r="B17">
+        <v>6030028</v>
+      </c>
+      <c r="C17">
+        <v>5803</v>
+      </c>
+      <c r="F17">
+        <v>7610160</v>
+      </c>
+      <c r="G17">
+        <v>8303</v>
+      </c>
+      <c r="J17">
+        <v>6885273</v>
+      </c>
+      <c r="K17">
+        <v>15695</v>
+      </c>
+      <c r="N17">
+        <v>10796286</v>
+      </c>
+      <c r="O17">
+        <v>72467</v>
+      </c>
+      <c r="R17">
+        <v>20421016</v>
+      </c>
+      <c r="S17">
+        <v>31909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="B18">
+        <v>12797937</v>
+      </c>
+      <c r="C18">
+        <v>174040</v>
+      </c>
+      <c r="F18">
+        <v>32701647</v>
+      </c>
+      <c r="G18">
+        <v>229733</v>
+      </c>
+      <c r="J18">
+        <v>38202077</v>
+      </c>
+      <c r="K18">
+        <v>380995</v>
+      </c>
+      <c r="N18">
+        <v>84107390</v>
+      </c>
+      <c r="O18">
+        <v>574005</v>
+      </c>
+      <c r="R18">
+        <v>94052729</v>
+      </c>
+      <c r="S18">
+        <v>595359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="B19">
+        <v>7591250</v>
+      </c>
+      <c r="C19">
+        <v>598929</v>
+      </c>
+      <c r="F19">
+        <v>7789378</v>
+      </c>
+      <c r="G19">
+        <v>548737</v>
+      </c>
+      <c r="J19">
+        <v>8595075</v>
+      </c>
+      <c r="K19">
+        <v>659265</v>
+      </c>
+      <c r="N19">
+        <v>9381455</v>
+      </c>
+      <c r="O19">
+        <v>732985</v>
+      </c>
+      <c r="R19">
+        <v>10076854</v>
+      </c>
+      <c r="S19">
+        <v>793696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>1571</v>
+      </c>
+      <c r="C20">
+        <v>1699</v>
+      </c>
+      <c r="F20">
+        <v>6553</v>
+      </c>
+      <c r="G20">
+        <v>4309</v>
+      </c>
+      <c r="J20">
+        <v>7705</v>
+      </c>
+      <c r="K20">
+        <v>1512</v>
+      </c>
+      <c r="N20">
+        <v>9424</v>
+      </c>
+      <c r="O20">
+        <v>567</v>
+      </c>
+      <c r="R20">
+        <v>4417</v>
+      </c>
+      <c r="S20">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2009</v>
-      </c>
-      <c r="C8">
+      <c r="B21">
+        <v>22088927</v>
+      </c>
+      <c r="C21">
+        <v>251733</v>
+      </c>
+      <c r="F21">
+        <v>23106206</v>
+      </c>
+      <c r="G21">
+        <v>200819</v>
+      </c>
+      <c r="J21">
+        <v>38079595</v>
+      </c>
+      <c r="K21">
+        <v>250430</v>
+      </c>
+      <c r="N21">
+        <v>44119820</v>
+      </c>
+      <c r="O21">
+        <v>269559</v>
+      </c>
+      <c r="R21">
+        <v>53197209</v>
+      </c>
+      <c r="S21">
+        <v>275930</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="B22">
+        <v>20553359</v>
+      </c>
+      <c r="C22">
+        <v>2056913</v>
+      </c>
+      <c r="F22">
+        <v>23739130</v>
+      </c>
+      <c r="G22">
+        <v>1999320</v>
+      </c>
+      <c r="J22">
+        <v>48465492</v>
+      </c>
+      <c r="K22">
+        <v>5083126</v>
+      </c>
+      <c r="N22">
+        <v>55333467</v>
+      </c>
+      <c r="O22">
+        <v>4815421</v>
+      </c>
+      <c r="R22">
+        <v>66330229</v>
+      </c>
+      <c r="S22">
+        <v>5120287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="B23">
+        <v>112151</v>
+      </c>
+      <c r="C23">
+        <v>354</v>
+      </c>
+      <c r="F23">
+        <v>124229</v>
+      </c>
+      <c r="G23">
+        <v>337</v>
+      </c>
+      <c r="J23">
+        <v>114062</v>
+      </c>
+      <c r="K23">
+        <v>389</v>
+      </c>
+      <c r="N23">
+        <v>134505</v>
+      </c>
+      <c r="O23">
+        <v>578</v>
+      </c>
+      <c r="R23">
+        <v>134541</v>
+      </c>
+      <c r="S23">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>2010</v>
-      </c>
-      <c r="C9">
+      <c r="B24">
+        <v>549936</v>
+      </c>
+      <c r="C24">
+        <v>4919</v>
+      </c>
+      <c r="F24">
+        <v>591398</v>
+      </c>
+      <c r="G24">
+        <v>4522</v>
+      </c>
+      <c r="J24">
+        <v>652756</v>
+      </c>
+      <c r="K24">
+        <v>4177</v>
+      </c>
+      <c r="N24">
+        <v>667504</v>
+      </c>
+      <c r="O24">
+        <v>4803</v>
+      </c>
+      <c r="R24">
+        <v>680254</v>
+      </c>
+      <c r="S24">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="B25">
+        <v>55924</v>
+      </c>
+      <c r="C25">
+        <v>902</v>
+      </c>
+      <c r="F25">
+        <v>56651</v>
+      </c>
+      <c r="G25">
+        <v>513</v>
+      </c>
+      <c r="J25">
+        <v>57292</v>
+      </c>
+      <c r="K25">
+        <v>731</v>
+      </c>
+      <c r="N25">
+        <v>62174</v>
+      </c>
+      <c r="O25">
+        <v>658</v>
+      </c>
+      <c r="R25">
+        <v>64249</v>
+      </c>
+      <c r="S25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
+      <c r="B26">
+        <v>21129</v>
+      </c>
+      <c r="C26">
+        <v>1209</v>
+      </c>
+      <c r="F26">
+        <v>20953</v>
+      </c>
+      <c r="G26">
+        <v>1423</v>
+      </c>
+      <c r="J26">
+        <v>21094</v>
+      </c>
+      <c r="K26">
+        <v>1132</v>
+      </c>
+      <c r="N26">
+        <v>25391</v>
+      </c>
+      <c r="O26">
+        <v>2080</v>
+      </c>
+      <c r="R26">
+        <v>35915</v>
+      </c>
+      <c r="S26">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>6358445</v>
+      </c>
+      <c r="C27">
+        <v>43966</v>
+      </c>
+      <c r="F27">
+        <v>6891510</v>
+      </c>
+      <c r="G27">
+        <v>45684</v>
+      </c>
+      <c r="J27">
+        <v>7591615</v>
+      </c>
+      <c r="K27">
+        <v>50432</v>
+      </c>
+      <c r="N27">
+        <v>8271257</v>
+      </c>
+      <c r="O27">
+        <v>60722</v>
+      </c>
+      <c r="R27">
+        <v>9052871</v>
+      </c>
+      <c r="S27">
+        <v>64719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
+      <c r="B28">
+        <v>509428</v>
+      </c>
+      <c r="C28">
+        <v>6869</v>
+      </c>
+      <c r="F28">
+        <v>457240</v>
+      </c>
+      <c r="G28">
+        <v>3184</v>
+      </c>
+      <c r="J28">
+        <v>835872</v>
+      </c>
+      <c r="K28">
+        <v>50964</v>
+      </c>
+      <c r="N28">
+        <v>897896</v>
+      </c>
+      <c r="O28">
+        <v>52298</v>
+      </c>
+      <c r="R28">
+        <v>981714</v>
+      </c>
+      <c r="S28">
+        <v>52931</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>827799</v>
+      </c>
+      <c r="C29">
+        <v>60309</v>
+      </c>
+      <c r="F29">
+        <v>851192</v>
+      </c>
+      <c r="G29">
+        <v>54039</v>
+      </c>
+      <c r="J29">
+        <v>10583509</v>
+      </c>
+      <c r="K29">
+        <v>137122</v>
+      </c>
+      <c r="N29">
+        <v>16416638</v>
+      </c>
+      <c r="O29">
+        <v>150958</v>
+      </c>
+      <c r="R29">
+        <v>19056143</v>
+      </c>
+      <c r="S29">
+        <v>143805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="B30">
+        <v>28358918</v>
+      </c>
+      <c r="C30">
+        <v>1477646</v>
+      </c>
+      <c r="F30">
+        <v>25558691</v>
+      </c>
+      <c r="G30">
+        <v>1073414</v>
+      </c>
+      <c r="J30">
+        <v>25543877</v>
+      </c>
+      <c r="K30">
+        <v>1278523</v>
+      </c>
+      <c r="N30">
+        <v>27137323</v>
+      </c>
+      <c r="O30">
+        <v>1351974</v>
+      </c>
+      <c r="R30">
+        <v>28611831</v>
+      </c>
+      <c r="S30">
+        <v>1451370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
+      <c r="B31">
+        <v>460564</v>
+      </c>
+      <c r="C31">
+        <v>19154</v>
+      </c>
+      <c r="F31">
+        <v>547810</v>
+      </c>
+      <c r="G31">
+        <v>17730</v>
+      </c>
+      <c r="J31">
+        <v>700011</v>
+      </c>
+      <c r="K31">
+        <v>20757</v>
+      </c>
+      <c r="N31">
+        <v>552453</v>
+      </c>
+      <c r="O31">
+        <v>23602</v>
+      </c>
+      <c r="R31">
+        <v>558538</v>
+      </c>
+      <c r="S31">
+        <v>26489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>2012</v>
-      </c>
-      <c r="C11">
+      <c r="B32">
+        <v>98285121</v>
+      </c>
+      <c r="C32">
+        <v>2029410</v>
+      </c>
+      <c r="F32">
+        <v>115755800</v>
+      </c>
+      <c r="G32">
+        <v>2369050</v>
+      </c>
+      <c r="J32">
+        <v>119188187</v>
+      </c>
+      <c r="K32">
+        <v>2804504</v>
+      </c>
+      <c r="N32">
+        <v>137512991</v>
+      </c>
+      <c r="O32">
+        <v>3373870</v>
+      </c>
+      <c r="R32">
+        <v>184136840</v>
+      </c>
+      <c r="S32">
+        <v>3561740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="B33">
+        <v>245438</v>
+      </c>
+      <c r="C33">
+        <v>3577</v>
+      </c>
+      <c r="F33">
+        <v>317541</v>
+      </c>
+      <c r="G33">
+        <v>4246</v>
+      </c>
+      <c r="J33">
+        <v>342273</v>
+      </c>
+      <c r="K33">
+        <v>5212</v>
+      </c>
+      <c r="N33">
+        <v>359515</v>
+      </c>
+      <c r="O33">
+        <v>6046</v>
+      </c>
+      <c r="R33">
+        <v>361786</v>
+      </c>
+      <c r="S33">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="E11">
+      <c r="B34">
+        <v>124843242</v>
+      </c>
+      <c r="C34">
+        <v>1610089</v>
+      </c>
+      <c r="F34">
+        <v>134831852</v>
+      </c>
+      <c r="G34">
+        <v>1532573</v>
+      </c>
+      <c r="J34">
+        <v>144754977</v>
+      </c>
+      <c r="K34">
+        <v>1732707</v>
+      </c>
+      <c r="N34">
+        <v>155430364</v>
+      </c>
+      <c r="O34">
+        <v>1887095</v>
+      </c>
+      <c r="R34">
+        <v>168381276</v>
+      </c>
+      <c r="S34">
+        <v>1994495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2013</v>
-      </c>
-      <c r="C12">
+      <c r="B35">
+        <v>20546323</v>
+      </c>
+      <c r="C35">
+        <v>99910</v>
+      </c>
+      <c r="F35">
+        <v>21934567</v>
+      </c>
+      <c r="G35">
+        <v>106470</v>
+      </c>
+      <c r="J35">
+        <v>30206030</v>
+      </c>
+      <c r="K35">
+        <v>127258</v>
+      </c>
+      <c r="N35">
+        <v>25946254</v>
+      </c>
+      <c r="O35">
+        <v>124653</v>
+      </c>
+      <c r="R35">
+        <v>26827329</v>
+      </c>
+      <c r="S35">
+        <v>124555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="D12">
-        <v>32</v>
-      </c>
-      <c r="E12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>2003</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>2004</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2005</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>2006</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>2007</v>
-      </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>2008</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>2009</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>2010</v>
-      </c>
-      <c r="C20">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>2011</v>
-      </c>
-      <c r="C21">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>2012</v>
-      </c>
-      <c r="C22">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>29</v>
-      </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>2013</v>
-      </c>
-      <c r="C23">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <v>32</v>
-      </c>
-      <c r="E23">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
+      <c r="B36">
+        <v>19314440</v>
+      </c>
+      <c r="C36">
+        <v>1133671</v>
+      </c>
+      <c r="F36">
+        <v>20528534</v>
+      </c>
+      <c r="G36">
+        <v>1180418</v>
+      </c>
+      <c r="J36">
+        <v>21072324</v>
+      </c>
+      <c r="K36">
+        <v>1192187</v>
+      </c>
+      <c r="N36">
+        <v>22256968</v>
+      </c>
+      <c r="O36">
+        <v>1213270</v>
+      </c>
+      <c r="R36">
+        <v>22730205</v>
+      </c>
+      <c r="S36">
+        <v>1219610</v>
       </c>
     </row>
   </sheetData>

--- a/data/MASTER_FILE_AKSHAY.xlsx
+++ b/data/MASTER_FILE_AKSHAY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Name of State</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>CRIME TOTAL 2012</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2013</t>
+  </si>
+  <si>
+    <t>FOREIGN 2013</t>
+  </si>
+  <si>
+    <t>HOTEL ROOMS 2013</t>
+  </si>
+  <si>
+    <t>CRIME TOTAL 2013</t>
   </si>
 </sst>
 </file>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,78 +580,96 @@
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="16" width="14" customWidth="1"/>
+    <col min="14" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" customWidth="1"/>
-    <col min="18" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -649,32 +679,56 @@
       <c r="C2">
         <v>12512</v>
       </c>
+      <c r="E2">
+        <v>47</v>
+      </c>
       <c r="F2">
         <v>142042</v>
       </c>
       <c r="G2">
         <v>13684</v>
       </c>
+      <c r="I2">
+        <v>42</v>
+      </c>
       <c r="J2">
         <v>180781</v>
       </c>
       <c r="K2">
         <v>14615</v>
       </c>
+      <c r="M2">
+        <v>57</v>
+      </c>
       <c r="N2">
         <v>202221</v>
       </c>
       <c r="O2">
         <v>15814</v>
       </c>
+      <c r="Q2">
+        <v>58</v>
+      </c>
       <c r="R2">
         <v>238699</v>
       </c>
       <c r="S2">
         <v>17538</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>55</v>
+      </c>
+      <c r="V2">
+        <v>243703</v>
+      </c>
+      <c r="W2">
+        <v>14742</v>
+      </c>
+      <c r="Y2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -684,32 +738,56 @@
       <c r="C3">
         <v>789180</v>
       </c>
+      <c r="E3">
+        <v>4856</v>
+      </c>
       <c r="F3">
         <v>157489927</v>
       </c>
       <c r="G3">
         <v>795173</v>
       </c>
+      <c r="I3">
+        <v>4223</v>
+      </c>
       <c r="J3">
         <v>155789584</v>
       </c>
       <c r="K3">
         <v>322825</v>
       </c>
+      <c r="M3">
+        <v>4523</v>
+      </c>
       <c r="N3">
         <v>153119816</v>
       </c>
       <c r="O3">
         <v>264563</v>
       </c>
+      <c r="Q3">
+        <v>4437</v>
+      </c>
       <c r="R3">
         <v>206817895</v>
       </c>
       <c r="S3">
         <v>292845</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>4408</v>
+      </c>
+      <c r="V3">
+        <v>152102150</v>
+      </c>
+      <c r="W3">
+        <v>223518</v>
+      </c>
+      <c r="Y3">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -725,26 +803,47 @@
       <c r="G4">
         <v>3945</v>
       </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
       <c r="J4">
         <v>227857</v>
       </c>
       <c r="K4">
         <v>3395</v>
       </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
       <c r="N4">
         <v>233227</v>
       </c>
       <c r="O4">
         <v>4753</v>
       </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
       <c r="R4">
         <v>317243</v>
       </c>
       <c r="S4">
         <v>5135</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>125461</v>
+      </c>
+      <c r="W4">
+        <v>10846</v>
+      </c>
+      <c r="Y4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -754,32 +853,56 @@
       <c r="C5">
         <v>14426</v>
       </c>
+      <c r="E5">
+        <v>3393</v>
+      </c>
       <c r="F5">
         <v>3850521</v>
       </c>
       <c r="G5">
         <v>14942</v>
       </c>
+      <c r="I5">
+        <v>3171</v>
+      </c>
       <c r="J5">
         <v>4050924</v>
       </c>
       <c r="K5">
         <v>15157</v>
       </c>
+      <c r="M5">
+        <v>3131</v>
+      </c>
       <c r="N5">
         <v>4339485</v>
       </c>
       <c r="O5">
         <v>16400</v>
       </c>
+      <c r="Q5">
+        <v>2983</v>
+      </c>
       <c r="R5">
         <v>4511407</v>
       </c>
       <c r="S5">
         <v>17543</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>2987</v>
+      </c>
+      <c r="V5">
+        <v>4684527</v>
+      </c>
+      <c r="W5">
+        <v>17638</v>
+      </c>
+      <c r="Y5">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -789,32 +912,56 @@
       <c r="C6">
         <v>345572</v>
       </c>
+      <c r="E6">
+        <v>5279</v>
+      </c>
       <c r="F6">
         <v>15685581</v>
       </c>
       <c r="G6">
         <v>423042</v>
       </c>
+      <c r="I6">
+        <v>4902</v>
+      </c>
       <c r="J6">
         <v>18491804</v>
       </c>
       <c r="K6">
         <v>635722</v>
       </c>
+      <c r="M6">
+        <v>4678</v>
+      </c>
       <c r="N6">
         <v>18397490</v>
       </c>
       <c r="O6">
         <v>972487</v>
       </c>
+      <c r="Q6">
+        <v>4122</v>
+      </c>
       <c r="R6">
         <v>21447099</v>
       </c>
       <c r="S6">
         <v>1096933</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>3622</v>
+      </c>
+      <c r="V6">
+        <v>21588306</v>
+      </c>
+      <c r="W6">
+        <v>765835</v>
+      </c>
+      <c r="Y6">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -824,32 +971,56 @@
       <c r="C7">
         <v>34762</v>
       </c>
+      <c r="E7">
+        <v>136</v>
+      </c>
       <c r="F7">
         <v>914742</v>
       </c>
       <c r="G7">
         <v>37967</v>
       </c>
+      <c r="I7">
+        <v>189</v>
+      </c>
       <c r="J7">
         <v>905450</v>
       </c>
       <c r="K7">
         <v>39333</v>
       </c>
+      <c r="M7">
+        <v>198</v>
+      </c>
       <c r="N7">
         <v>909904</v>
       </c>
       <c r="O7">
         <v>37181</v>
       </c>
+      <c r="Q7">
+        <v>203</v>
+      </c>
       <c r="R7">
         <v>924589</v>
       </c>
       <c r="S7">
         <v>34130</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>209</v>
+      </c>
+      <c r="V7">
+        <v>936922</v>
+      </c>
+      <c r="W7">
+        <v>40124</v>
+      </c>
+      <c r="Y7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -859,32 +1030,56 @@
       <c r="C8">
         <v>1314</v>
       </c>
+      <c r="E8">
+        <v>4442</v>
+      </c>
       <c r="F8">
         <v>511561</v>
       </c>
       <c r="G8">
         <v>1277</v>
       </c>
+      <c r="I8">
+        <v>4540</v>
+      </c>
       <c r="J8">
         <v>566298</v>
       </c>
       <c r="K8">
         <v>1586</v>
       </c>
+      <c r="M8">
+        <v>4906</v>
+      </c>
       <c r="N8">
         <v>644425</v>
       </c>
       <c r="O8">
         <v>1726</v>
       </c>
+      <c r="Q8">
+        <v>5339</v>
+      </c>
       <c r="R8">
         <v>15036530</v>
       </c>
       <c r="S8">
         <v>4172</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>5511</v>
+      </c>
+      <c r="V8">
+        <v>22801031</v>
+      </c>
+      <c r="W8">
+        <v>3886</v>
+      </c>
+      <c r="Y8">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -894,32 +1089,56 @@
       <c r="C9">
         <v>5719</v>
       </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
       <c r="F9">
         <v>506625</v>
       </c>
       <c r="G9">
         <v>7109</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9">
         <v>495575</v>
       </c>
       <c r="K9">
         <v>1698</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
       <c r="N9">
         <v>422265</v>
       </c>
       <c r="O9">
         <v>1412</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="R9">
         <v>469213</v>
       </c>
       <c r="S9">
         <v>1234</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>481618</v>
+      </c>
+      <c r="W9">
+        <v>1582</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -929,32 +1148,56 @@
       <c r="C10">
         <v>5266</v>
       </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
       <c r="F10">
         <v>563461</v>
       </c>
       <c r="G10">
         <v>5748</v>
       </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
       <c r="J10">
         <v>774166</v>
       </c>
       <c r="K10">
         <v>5139</v>
       </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
       <c r="N10">
         <v>832906</v>
       </c>
       <c r="O10">
         <v>4484</v>
       </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
       <c r="R10">
         <v>803963</v>
       </c>
       <c r="S10">
         <v>4607</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>14</v>
+      </c>
+      <c r="V10">
+        <v>819947</v>
+      </c>
+      <c r="W10">
+        <v>4814</v>
+      </c>
+      <c r="Y10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -964,32 +1207,56 @@
       <c r="C11">
         <v>2339287</v>
       </c>
+      <c r="E11">
+        <v>1685</v>
+      </c>
       <c r="F11">
         <v>2041173</v>
       </c>
       <c r="G11">
         <v>1958272</v>
       </c>
+      <c r="I11">
+        <v>1904</v>
+      </c>
       <c r="J11">
         <v>13558353</v>
       </c>
       <c r="K11">
         <v>1893650</v>
       </c>
+      <c r="M11">
+        <v>2350</v>
+      </c>
       <c r="N11">
         <v>15428865</v>
       </c>
       <c r="O11">
         <v>2159925</v>
       </c>
+      <c r="Q11">
+        <v>2703</v>
+      </c>
       <c r="R11">
         <v>18495139</v>
       </c>
       <c r="S11">
         <v>2345980</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>2722</v>
+      </c>
+      <c r="V11">
+        <v>20215187</v>
+      </c>
+      <c r="W11">
+        <v>2301395</v>
+      </c>
+      <c r="Y11">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -999,32 +1266,56 @@
       <c r="C12">
         <v>351123</v>
       </c>
+      <c r="E12">
+        <v>119</v>
+      </c>
       <c r="F12">
         <v>2127063</v>
       </c>
       <c r="G12">
         <v>376640</v>
       </c>
+      <c r="I12">
+        <v>128</v>
+      </c>
       <c r="J12">
         <v>2201752</v>
       </c>
       <c r="K12">
         <v>441053</v>
       </c>
+      <c r="M12">
+        <v>134</v>
+      </c>
       <c r="N12">
         <v>2225002</v>
       </c>
       <c r="O12">
         <v>445935</v>
       </c>
+      <c r="Q12">
+        <v>123</v>
+      </c>
       <c r="R12">
         <v>2337499</v>
       </c>
       <c r="S12">
         <v>450530</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>117</v>
+      </c>
+      <c r="V12">
+        <v>2629151</v>
+      </c>
+      <c r="W12">
+        <v>492322</v>
+      </c>
+      <c r="Y12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1034,32 +1325,56 @@
       <c r="C13">
         <v>110702</v>
       </c>
+      <c r="E13">
+        <v>4337</v>
+      </c>
       <c r="F13">
         <v>15909931</v>
       </c>
       <c r="G13">
         <v>102747</v>
       </c>
+      <c r="I13">
+        <v>3511</v>
+      </c>
       <c r="J13">
         <v>18861296</v>
       </c>
       <c r="K13">
         <v>130739</v>
       </c>
+      <c r="M13">
+        <v>3535</v>
+      </c>
       <c r="N13">
         <v>21017478</v>
       </c>
       <c r="O13">
         <v>166042</v>
       </c>
+      <c r="Q13">
+        <v>3745</v>
+      </c>
       <c r="R13">
         <v>24379023</v>
       </c>
       <c r="S13">
         <v>174150</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>3729</v>
+      </c>
+      <c r="V13">
+        <v>27412517</v>
+      </c>
+      <c r="W13">
+        <v>198773</v>
+      </c>
+      <c r="Y13">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1069,32 +1384,56 @@
       <c r="C14">
         <v>87172</v>
       </c>
+      <c r="E14">
+        <v>4589</v>
+      </c>
       <c r="F14">
         <v>6408423</v>
       </c>
       <c r="G14">
         <v>137094</v>
       </c>
+      <c r="I14">
+        <v>5010</v>
+      </c>
       <c r="J14">
         <v>6915269</v>
       </c>
       <c r="K14">
         <v>106433</v>
       </c>
+      <c r="M14">
+        <v>5471</v>
+      </c>
       <c r="N14">
         <v>5988062</v>
       </c>
       <c r="O14">
         <v>130435</v>
       </c>
+      <c r="Q14">
+        <v>5802</v>
+      </c>
       <c r="R14">
         <v>6799242</v>
       </c>
       <c r="S14">
         <v>233002</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>6024</v>
+      </c>
+      <c r="V14">
+        <v>7128027</v>
+      </c>
+      <c r="W14">
+        <v>228200</v>
+      </c>
+      <c r="Y14">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1104,6 +1443,9 @@
       <c r="C15">
         <v>376736</v>
       </c>
+      <c r="E15">
+        <v>663</v>
+      </c>
       <c r="F15">
         <v>11036572</v>
       </c>
@@ -1111,26 +1453,47 @@
         <v>400583</v>
       </c>
       <c r="H15" s="1"/>
+      <c r="I15">
+        <v>638</v>
+      </c>
       <c r="J15">
         <v>12811986</v>
       </c>
       <c r="K15">
         <v>453616</v>
       </c>
+      <c r="M15">
+        <v>717</v>
+      </c>
       <c r="N15">
         <v>14604888</v>
       </c>
       <c r="O15">
         <v>484518</v>
       </c>
+      <c r="Q15">
+        <v>679</v>
+      </c>
       <c r="R15">
         <v>15646048</v>
       </c>
       <c r="S15">
         <v>500284</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>680</v>
+      </c>
+      <c r="V15">
+        <v>14715586</v>
+      </c>
+      <c r="W15">
+        <v>414249</v>
+      </c>
+      <c r="Y15">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1140,32 +1503,56 @@
       <c r="C16">
         <v>54697</v>
       </c>
+      <c r="E16">
+        <v>220</v>
+      </c>
       <c r="F16">
         <v>9234862</v>
       </c>
       <c r="G16">
         <v>54475</v>
       </c>
+      <c r="I16">
+        <v>232</v>
+      </c>
       <c r="J16">
         <v>9973189</v>
       </c>
       <c r="K16">
         <v>48099</v>
       </c>
+      <c r="M16">
+        <v>238</v>
+      </c>
       <c r="N16">
         <v>13071531</v>
       </c>
       <c r="O16">
         <v>71593</v>
       </c>
+      <c r="Q16">
+        <v>235</v>
+      </c>
       <c r="R16">
         <v>12427122</v>
       </c>
       <c r="S16">
         <v>78802</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>294</v>
+      </c>
+      <c r="V16">
+        <v>13642402</v>
+      </c>
+      <c r="W16">
+        <v>60845</v>
+      </c>
+      <c r="Y16">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1175,32 +1562,56 @@
       <c r="C17">
         <v>5803</v>
       </c>
+      <c r="E17">
+        <v>5480</v>
+      </c>
       <c r="F17">
         <v>7610160</v>
       </c>
       <c r="G17">
         <v>8303</v>
       </c>
+      <c r="I17">
+        <v>5339</v>
+      </c>
       <c r="J17">
         <v>6885273</v>
       </c>
       <c r="K17">
         <v>15695</v>
       </c>
+      <c r="M17">
+        <v>4965</v>
+      </c>
       <c r="N17">
         <v>10796286</v>
       </c>
       <c r="O17">
         <v>72467</v>
       </c>
+      <c r="Q17">
+        <v>4103</v>
+      </c>
       <c r="R17">
         <v>20421016</v>
       </c>
       <c r="S17">
         <v>31909</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>3986</v>
+      </c>
+      <c r="V17">
+        <v>20511160</v>
+      </c>
+      <c r="W17">
+        <v>45995</v>
+      </c>
+      <c r="Y17">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1210,32 +1621,56 @@
       <c r="C18">
         <v>174040</v>
       </c>
+      <c r="E18">
+        <v>3623</v>
+      </c>
       <c r="F18">
         <v>32701647</v>
       </c>
       <c r="G18">
         <v>229733</v>
       </c>
+      <c r="I18">
+        <v>3409</v>
+      </c>
       <c r="J18">
         <v>38202077</v>
       </c>
       <c r="K18">
         <v>380995</v>
       </c>
+      <c r="M18">
+        <v>3598</v>
+      </c>
       <c r="N18">
         <v>84107390</v>
       </c>
       <c r="O18">
         <v>574005</v>
       </c>
+      <c r="Q18">
+        <v>3849</v>
+      </c>
       <c r="R18">
         <v>94052729</v>
       </c>
       <c r="S18">
         <v>595359</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>3960</v>
+      </c>
+      <c r="V18">
+        <v>98010140</v>
+      </c>
+      <c r="W18">
+        <v>636378</v>
+      </c>
+      <c r="Y18">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1245,32 +1680,56 @@
       <c r="C19">
         <v>598929</v>
       </c>
+      <c r="E19">
+        <v>2310</v>
+      </c>
       <c r="F19">
         <v>7789378</v>
       </c>
       <c r="G19">
         <v>548737</v>
       </c>
+      <c r="I19">
+        <v>2450</v>
+      </c>
       <c r="J19">
         <v>8595075</v>
       </c>
       <c r="K19">
         <v>659265</v>
       </c>
+      <c r="M19">
+        <v>2382</v>
+      </c>
       <c r="N19">
         <v>9381455</v>
       </c>
       <c r="O19">
         <v>732985</v>
       </c>
+      <c r="Q19">
+        <v>2041</v>
+      </c>
       <c r="R19">
         <v>10076854</v>
       </c>
       <c r="S19">
         <v>793696</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>2314</v>
+      </c>
+      <c r="V19">
+        <v>10857811</v>
+      </c>
+      <c r="W19">
+        <v>858143</v>
+      </c>
+      <c r="Y19">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1280,32 +1739,56 @@
       <c r="C20">
         <v>1699</v>
       </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
       <c r="F20">
         <v>6553</v>
       </c>
       <c r="G20">
         <v>4309</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20">
         <v>7705</v>
       </c>
       <c r="K20">
         <v>1512</v>
       </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
       <c r="N20">
         <v>9424</v>
       </c>
       <c r="O20">
         <v>567</v>
       </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
       <c r="R20">
         <v>4417</v>
       </c>
       <c r="S20">
         <v>580</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>4784</v>
+      </c>
+      <c r="W20">
+        <v>371</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1315,32 +1798,56 @@
       <c r="C21">
         <v>251733</v>
       </c>
+      <c r="E21">
+        <v>13983</v>
+      </c>
       <c r="F21">
         <v>23106206</v>
       </c>
       <c r="G21">
         <v>200819</v>
       </c>
+      <c r="I21">
+        <v>13395</v>
+      </c>
       <c r="J21">
         <v>38079595</v>
       </c>
       <c r="K21">
         <v>250430</v>
       </c>
+      <c r="M21">
+        <v>12953</v>
+      </c>
       <c r="N21">
         <v>44119820</v>
       </c>
       <c r="O21">
         <v>269559</v>
       </c>
+      <c r="Q21">
+        <v>14434</v>
+      </c>
       <c r="R21">
         <v>53197209</v>
       </c>
       <c r="S21">
         <v>275930</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>14661</v>
+      </c>
+      <c r="V21">
+        <v>63110709</v>
+      </c>
+      <c r="W21">
+        <v>280333</v>
+      </c>
+      <c r="Y21">
+        <v>15494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1350,32 +1857,56 @@
       <c r="C22">
         <v>2056913</v>
       </c>
+      <c r="E22">
+        <v>7980</v>
+      </c>
       <c r="F22">
         <v>23739130</v>
       </c>
       <c r="G22">
         <v>1999320</v>
       </c>
+      <c r="I22">
+        <v>7556</v>
+      </c>
       <c r="J22">
         <v>48465492</v>
       </c>
       <c r="K22">
         <v>5083126</v>
       </c>
+      <c r="M22">
+        <v>7509</v>
+      </c>
       <c r="N22">
         <v>55333467</v>
       </c>
       <c r="O22">
         <v>4815421</v>
       </c>
+      <c r="Q22">
+        <v>7159</v>
+      </c>
       <c r="R22">
         <v>66330229</v>
       </c>
       <c r="S22">
         <v>5120287</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>7110</v>
+      </c>
+      <c r="V22">
+        <v>82700556</v>
+      </c>
+      <c r="W22">
+        <v>4156343</v>
+      </c>
+      <c r="Y22">
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1385,32 +1916,56 @@
       <c r="C23">
         <v>354</v>
       </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
       <c r="F23">
         <v>124229</v>
       </c>
       <c r="G23">
         <v>337</v>
       </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
       <c r="J23">
         <v>114062</v>
       </c>
       <c r="K23">
         <v>389</v>
       </c>
+      <c r="M23">
+        <v>29</v>
+      </c>
       <c r="N23">
         <v>134505</v>
       </c>
       <c r="O23">
         <v>578</v>
       </c>
+      <c r="Q23">
+        <v>23</v>
+      </c>
       <c r="R23">
         <v>134541</v>
       </c>
       <c r="S23">
         <v>749</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>23</v>
+      </c>
+      <c r="V23">
+        <v>140673</v>
+      </c>
+      <c r="W23">
+        <v>1908</v>
+      </c>
+      <c r="Y23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1420,32 +1975,56 @@
       <c r="C24">
         <v>4919</v>
       </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
       <c r="F24">
         <v>591398</v>
       </c>
       <c r="G24">
         <v>4522</v>
       </c>
+      <c r="I24">
+        <v>77</v>
+      </c>
       <c r="J24">
         <v>652756</v>
       </c>
       <c r="K24">
         <v>4177</v>
       </c>
+      <c r="M24">
+        <v>48</v>
+      </c>
       <c r="N24">
         <v>667504</v>
       </c>
       <c r="O24">
         <v>4803</v>
       </c>
+      <c r="Q24">
+        <v>54</v>
+      </c>
       <c r="R24">
         <v>680254</v>
       </c>
       <c r="S24">
         <v>5313</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>62</v>
+      </c>
+      <c r="V24">
+        <v>691269</v>
+      </c>
+      <c r="W24">
+        <v>6773</v>
+      </c>
+      <c r="Y24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1455,32 +2034,56 @@
       <c r="C25">
         <v>902</v>
       </c>
+      <c r="E25">
+        <v>210</v>
+      </c>
       <c r="F25">
         <v>56651</v>
       </c>
       <c r="G25">
         <v>513</v>
       </c>
+      <c r="I25">
+        <v>235</v>
+      </c>
       <c r="J25">
         <v>57292</v>
       </c>
       <c r="K25">
         <v>731</v>
       </c>
+      <c r="M25">
+        <v>275</v>
+      </c>
       <c r="N25">
         <v>62174</v>
       </c>
       <c r="O25">
         <v>658</v>
       </c>
+      <c r="Q25">
+        <v>265</v>
+      </c>
       <c r="R25">
         <v>64249</v>
       </c>
       <c r="S25">
         <v>744</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>248</v>
+      </c>
+      <c r="V25">
+        <v>63377</v>
+      </c>
+      <c r="W25">
+        <v>800</v>
+      </c>
+      <c r="Y25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1490,32 +2093,56 @@
       <c r="C26">
         <v>1209</v>
       </c>
+      <c r="E26">
+        <v>112</v>
+      </c>
       <c r="F26">
         <v>20953</v>
       </c>
       <c r="G26">
         <v>1423</v>
       </c>
+      <c r="I26">
+        <v>126</v>
+      </c>
       <c r="J26">
         <v>21094</v>
       </c>
       <c r="K26">
         <v>1132</v>
       </c>
+      <c r="M26">
+        <v>110</v>
+      </c>
       <c r="N26">
         <v>25391</v>
       </c>
       <c r="O26">
         <v>2080</v>
       </c>
+      <c r="Q26">
+        <v>110</v>
+      </c>
       <c r="R26">
         <v>35915</v>
       </c>
       <c r="S26">
         <v>2489</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>117</v>
+      </c>
+      <c r="V26">
+        <v>35638</v>
+      </c>
+      <c r="W26">
+        <v>3304</v>
+      </c>
+      <c r="Y26">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1525,32 +2152,56 @@
       <c r="C27">
         <v>43966</v>
       </c>
+      <c r="E27">
+        <v>4169</v>
+      </c>
       <c r="F27">
         <v>6891510</v>
       </c>
       <c r="G27">
         <v>45684</v>
       </c>
+      <c r="I27">
+        <v>3926</v>
+      </c>
       <c r="J27">
         <v>7591615</v>
       </c>
       <c r="K27">
         <v>50432</v>
       </c>
+      <c r="M27">
+        <v>3854</v>
+      </c>
       <c r="N27">
         <v>8271257</v>
       </c>
       <c r="O27">
         <v>60722</v>
       </c>
+      <c r="Q27">
+        <v>3521</v>
+      </c>
       <c r="R27">
         <v>9052871</v>
       </c>
       <c r="S27">
         <v>64719</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>3436</v>
+      </c>
+      <c r="V27">
+        <v>9800135</v>
+      </c>
+      <c r="W27">
+        <v>66675</v>
+      </c>
+      <c r="Y27">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1560,32 +2211,56 @@
       <c r="C28">
         <v>6869</v>
       </c>
+      <c r="E28">
+        <v>96</v>
+      </c>
       <c r="F28">
         <v>457240</v>
       </c>
       <c r="G28">
         <v>3184</v>
       </c>
+      <c r="I28">
+        <v>118</v>
+      </c>
       <c r="J28">
         <v>835872</v>
       </c>
       <c r="K28">
         <v>50964</v>
       </c>
+      <c r="M28">
+        <v>129</v>
+      </c>
       <c r="N28">
         <v>897896</v>
       </c>
       <c r="O28">
         <v>52298</v>
       </c>
+      <c r="Q28">
+        <v>129</v>
+      </c>
       <c r="R28">
         <v>981714</v>
       </c>
       <c r="S28">
         <v>52931</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>109</v>
+      </c>
+      <c r="V28">
+        <v>1000277</v>
+      </c>
+      <c r="W28">
+        <v>42624</v>
+      </c>
+      <c r="Y28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1595,32 +2270,56 @@
       <c r="C29">
         <v>60309</v>
       </c>
+      <c r="E29">
+        <v>3397</v>
+      </c>
       <c r="F29">
         <v>851192</v>
       </c>
       <c r="G29">
         <v>54039</v>
       </c>
+      <c r="I29">
+        <v>3949</v>
+      </c>
       <c r="J29">
         <v>10583509</v>
       </c>
       <c r="K29">
         <v>137122</v>
       </c>
+      <c r="M29">
+        <v>5067</v>
+      </c>
       <c r="N29">
         <v>16416638</v>
       </c>
       <c r="O29">
         <v>150958</v>
       </c>
+      <c r="Q29">
+        <v>5582</v>
+      </c>
       <c r="R29">
         <v>19056143</v>
       </c>
       <c r="S29">
         <v>143805</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>4905</v>
+      </c>
+      <c r="V29">
+        <v>21340888</v>
+      </c>
+      <c r="W29">
+        <v>204074</v>
+      </c>
+      <c r="Y29">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1630,32 +2329,56 @@
       <c r="C30">
         <v>1477646</v>
       </c>
+      <c r="E30">
+        <v>5471</v>
+      </c>
       <c r="F30">
         <v>25558691</v>
       </c>
       <c r="G30">
         <v>1073414</v>
       </c>
+      <c r="I30">
+        <v>5685</v>
+      </c>
       <c r="J30">
         <v>25543877</v>
       </c>
       <c r="K30">
         <v>1278523</v>
       </c>
+      <c r="M30">
+        <v>5285</v>
+      </c>
       <c r="N30">
         <v>27137323</v>
       </c>
       <c r="O30">
         <v>1351974</v>
       </c>
+      <c r="Q30">
+        <v>5169</v>
+      </c>
       <c r="R30">
         <v>28611831</v>
       </c>
       <c r="S30">
         <v>1451370</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>4956</v>
+      </c>
+      <c r="V30">
+        <v>30298150</v>
+      </c>
+      <c r="W30">
+        <v>1437162</v>
+      </c>
+      <c r="Y30">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1665,32 +2388,56 @@
       <c r="C31">
         <v>19154</v>
       </c>
+      <c r="E31">
+        <v>62</v>
+      </c>
       <c r="F31">
         <v>547810</v>
       </c>
       <c r="G31">
         <v>17730</v>
       </c>
+      <c r="I31">
+        <v>65</v>
+      </c>
       <c r="J31">
         <v>700011</v>
       </c>
       <c r="K31">
         <v>20757</v>
       </c>
+      <c r="M31">
+        <v>67</v>
+      </c>
       <c r="N31">
         <v>552453</v>
       </c>
       <c r="O31">
         <v>23602</v>
       </c>
+      <c r="Q31">
+        <v>63</v>
+      </c>
       <c r="R31">
         <v>558538</v>
       </c>
       <c r="S31">
         <v>26489</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>75</v>
+      </c>
+      <c r="V31">
+        <v>576749</v>
+      </c>
+      <c r="W31">
+        <v>31698</v>
+      </c>
+      <c r="Y31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1700,32 +2447,56 @@
       <c r="C32">
         <v>2029410</v>
       </c>
+      <c r="E32">
+        <v>4971</v>
+      </c>
       <c r="F32">
         <v>115755800</v>
       </c>
       <c r="G32">
         <v>2369050</v>
       </c>
+      <c r="I32">
+        <v>4771</v>
+      </c>
       <c r="J32">
         <v>119188187</v>
       </c>
       <c r="K32">
         <v>2804504</v>
       </c>
+      <c r="M32">
+        <v>4873</v>
+      </c>
       <c r="N32">
         <v>137512991</v>
       </c>
       <c r="O32">
         <v>3373870</v>
       </c>
+      <c r="Q32">
+        <v>4816</v>
+      </c>
       <c r="R32">
         <v>184136840</v>
       </c>
       <c r="S32">
         <v>3561740</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>4508</v>
+      </c>
+      <c r="V32">
+        <v>244232487</v>
+      </c>
+      <c r="W32">
+        <v>3990490</v>
+      </c>
+      <c r="Y32">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1735,32 +2506,56 @@
       <c r="C33">
         <v>3577</v>
       </c>
+      <c r="E33">
+        <v>806</v>
+      </c>
       <c r="F33">
         <v>317541</v>
       </c>
       <c r="G33">
         <v>4246</v>
       </c>
+      <c r="I33">
+        <v>624</v>
+      </c>
       <c r="J33">
         <v>342273</v>
       </c>
       <c r="K33">
         <v>5212</v>
       </c>
+      <c r="M33">
+        <v>547</v>
+      </c>
       <c r="N33">
         <v>359515</v>
       </c>
       <c r="O33">
         <v>6046</v>
       </c>
+      <c r="Q33">
+        <v>529</v>
+      </c>
       <c r="R33">
         <v>361786</v>
       </c>
       <c r="S33">
         <v>7840</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>530</v>
+      </c>
+      <c r="V33">
+        <v>359586</v>
+      </c>
+      <c r="W33">
+        <v>11853</v>
+      </c>
+      <c r="Y33">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1770,32 +2565,56 @@
       <c r="C34">
         <v>1610089</v>
       </c>
+      <c r="E34">
+        <v>18202</v>
+      </c>
       <c r="F34">
         <v>134831852</v>
       </c>
       <c r="G34">
         <v>1532573</v>
       </c>
+      <c r="I34">
+        <v>21872</v>
+      </c>
       <c r="J34">
         <v>144754977</v>
       </c>
       <c r="K34">
         <v>1732707</v>
       </c>
+      <c r="M34">
+        <v>22948</v>
+      </c>
       <c r="N34">
         <v>155430364</v>
       </c>
       <c r="O34">
         <v>1887095</v>
       </c>
+      <c r="Q34">
+        <v>23910</v>
+      </c>
       <c r="R34">
         <v>168381276</v>
       </c>
       <c r="S34">
         <v>1994495</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>22599</v>
+      </c>
+      <c r="V34">
+        <v>226531091</v>
+      </c>
+      <c r="W34">
+        <v>2054420</v>
+      </c>
+      <c r="Y34">
+        <v>23179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1805,32 +2624,56 @@
       <c r="C35">
         <v>99910</v>
       </c>
+      <c r="E35">
+        <v>1031</v>
+      </c>
       <c r="F35">
         <v>21934567</v>
       </c>
       <c r="G35">
         <v>106470</v>
       </c>
+      <c r="I35">
+        <v>1098</v>
+      </c>
       <c r="J35">
         <v>30206030</v>
       </c>
       <c r="K35">
         <v>127258</v>
       </c>
+      <c r="M35">
+        <v>1183</v>
+      </c>
       <c r="N35">
         <v>25946254</v>
       </c>
       <c r="O35">
         <v>124653</v>
       </c>
+      <c r="Q35">
+        <v>1405</v>
+      </c>
       <c r="R35">
         <v>26827329</v>
       </c>
       <c r="S35">
         <v>124555</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>1387</v>
+      </c>
+      <c r="V35">
+        <v>19941128</v>
+      </c>
+      <c r="W35">
+        <v>97683</v>
+      </c>
+      <c r="Y35">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1840,29 +2683,53 @@
       <c r="C36">
         <v>1133671</v>
       </c>
+      <c r="E36">
+        <v>4540</v>
+      </c>
       <c r="F36">
         <v>20528534</v>
       </c>
       <c r="G36">
         <v>1180418</v>
       </c>
+      <c r="I36">
+        <v>4306</v>
+      </c>
       <c r="J36">
         <v>21072324</v>
       </c>
       <c r="K36">
         <v>1192187</v>
       </c>
+      <c r="M36">
+        <v>4415</v>
+      </c>
       <c r="N36">
         <v>22256968</v>
       </c>
       <c r="O36">
         <v>1213270</v>
       </c>
+      <c r="Q36">
+        <v>4379</v>
+      </c>
       <c r="R36">
         <v>22730205</v>
       </c>
       <c r="S36">
         <v>1219610</v>
+      </c>
+      <c r="U36">
+        <v>4639</v>
+      </c>
+      <c r="V36">
+        <v>25547300</v>
+      </c>
+      <c r="W36">
+        <v>1245230</v>
+      </c>
+      <c r="Y36">
+        <v>4388</v>
       </c>
     </row>
   </sheetData>

--- a/data/MASTER_FILE_AKSHAY.xlsx
+++ b/data/MASTER_FILE_AKSHAY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>Name of State</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>CRIME TOTAL 2013</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -251,9 +254,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,21 +582,22 @@
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,49 +632,55 @@
         <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -679,6 +690,9 @@
       <c r="C2">
         <v>12512</v>
       </c>
+      <c r="D2">
+        <v>106</v>
+      </c>
       <c r="E2">
         <v>47</v>
       </c>
@@ -688,6 +702,9 @@
       <c r="G2">
         <v>13684</v>
       </c>
+      <c r="H2">
+        <v>106</v>
+      </c>
       <c r="I2">
         <v>42</v>
       </c>
@@ -697,38 +714,44 @@
       <c r="K2">
         <v>14615</v>
       </c>
-      <c r="M2">
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2">
         <v>57</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>202221</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>15814</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2">
         <v>58</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>238699</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>17538</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>55</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>243703</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>14742</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -738,6 +761,9 @@
       <c r="C3">
         <v>789180</v>
       </c>
+      <c r="D3">
+        <v>7390</v>
+      </c>
       <c r="E3">
         <v>4856</v>
       </c>
@@ -747,6 +773,9 @@
       <c r="G3">
         <v>795173</v>
       </c>
+      <c r="H3">
+        <v>7390</v>
+      </c>
       <c r="I3">
         <v>4223</v>
       </c>
@@ -756,38 +785,44 @@
       <c r="K3">
         <v>322825</v>
       </c>
-      <c r="M3">
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3">
         <v>4523</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>153119816</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>264563</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3">
         <v>4437</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>206817895</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>292845</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>4408</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>152102150</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>223518</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>4241</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -797,12 +832,21 @@
       <c r="C4">
         <v>3020</v>
       </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
       <c r="F4">
         <v>195147</v>
       </c>
       <c r="G4">
         <v>3945</v>
       </c>
+      <c r="H4">
+        <v>31</v>
+      </c>
       <c r="I4">
         <v>2</v>
       </c>
@@ -812,38 +856,44 @@
       <c r="K4">
         <v>3395</v>
       </c>
-      <c r="M4">
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4">
         <v>4</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>233227</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4753</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4">
         <v>5</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>317243</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>5135</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>4</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>125461</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>10846</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -853,6 +903,9 @@
       <c r="C5">
         <v>14426</v>
       </c>
+      <c r="D5">
+        <v>638</v>
+      </c>
       <c r="E5">
         <v>3393</v>
       </c>
@@ -862,6 +915,9 @@
       <c r="G5">
         <v>14942</v>
       </c>
+      <c r="H5">
+        <v>638</v>
+      </c>
       <c r="I5">
         <v>3171</v>
       </c>
@@ -871,38 +927,44 @@
       <c r="K5">
         <v>15157</v>
       </c>
-      <c r="M5">
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5">
         <v>3131</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>4339485</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>16400</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5">
         <v>2983</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>4511407</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>17543</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>2987</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>4684527</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>17638</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>2950</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -912,6 +974,9 @@
       <c r="C6">
         <v>345572</v>
       </c>
+      <c r="D6">
+        <v>373</v>
+      </c>
       <c r="E6">
         <v>5279</v>
       </c>
@@ -921,6 +986,9 @@
       <c r="G6">
         <v>423042</v>
       </c>
+      <c r="H6">
+        <v>373</v>
+      </c>
       <c r="I6">
         <v>4902</v>
       </c>
@@ -930,38 +998,44 @@
       <c r="K6">
         <v>635722</v>
       </c>
-      <c r="M6">
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6">
         <v>4678</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>18397490</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>972487</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6">
         <v>4122</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>21447099</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>1096933</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>3622</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>21588306</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>765835</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>3935</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -971,6 +1045,9 @@
       <c r="C7">
         <v>34762</v>
       </c>
+      <c r="D7">
+        <v>192</v>
+      </c>
       <c r="E7">
         <v>136</v>
       </c>
@@ -980,6 +1057,9 @@
       <c r="G7">
         <v>37967</v>
       </c>
+      <c r="H7">
+        <v>192</v>
+      </c>
       <c r="I7">
         <v>189</v>
       </c>
@@ -989,38 +1069,44 @@
       <c r="K7">
         <v>39333</v>
       </c>
-      <c r="M7">
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7">
         <v>198</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>909904</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>37181</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7">
         <v>203</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>924589</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>34130</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>209</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>936922</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>40124</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1030,6 +1116,9 @@
       <c r="C8">
         <v>1314</v>
       </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
       <c r="E8">
         <v>4442</v>
       </c>
@@ -1039,6 +1128,9 @@
       <c r="G8">
         <v>1277</v>
       </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
       <c r="I8">
         <v>4540</v>
       </c>
@@ -1048,38 +1140,44 @@
       <c r="K8">
         <v>1586</v>
       </c>
-      <c r="M8">
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8">
         <v>4906</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>644425</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1726</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8">
         <v>5339</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>15036530</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>4172</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>5511</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>22801031</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>3886</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>6112</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1089,6 +1187,9 @@
       <c r="C9">
         <v>5719</v>
       </c>
+      <c r="D9">
+        <v>272</v>
+      </c>
       <c r="E9">
         <v>9</v>
       </c>
@@ -1098,6 +1199,9 @@
       <c r="G9">
         <v>7109</v>
       </c>
+      <c r="H9">
+        <v>272</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
@@ -1107,38 +1211,44 @@
       <c r="K9">
         <v>1698</v>
       </c>
-      <c r="M9">
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>422265</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1412</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9">
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>469213</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>1234</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>481618</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>1582</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1148,6 +1258,9 @@
       <c r="C10">
         <v>5266</v>
       </c>
+      <c r="D10">
+        <v>140</v>
+      </c>
       <c r="E10">
         <v>16</v>
       </c>
@@ -1157,6 +1270,9 @@
       <c r="G10">
         <v>5748</v>
       </c>
+      <c r="H10">
+        <v>140</v>
+      </c>
       <c r="I10">
         <v>15</v>
       </c>
@@ -1166,38 +1282,44 @@
       <c r="K10">
         <v>5139</v>
       </c>
-      <c r="M10">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10">
         <v>14</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>832906</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4484</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10">
         <v>12</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>803963</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>4607</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>14</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>819947</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>4814</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1207,6 +1329,9 @@
       <c r="C11">
         <v>2339287</v>
       </c>
+      <c r="D11">
+        <v>9554</v>
+      </c>
       <c r="E11">
         <v>1685</v>
       </c>
@@ -1216,6 +1341,9 @@
       <c r="G11">
         <v>1958272</v>
       </c>
+      <c r="H11">
+        <v>9554</v>
+      </c>
       <c r="I11">
         <v>1904</v>
       </c>
@@ -1225,38 +1353,44 @@
       <c r="K11">
         <v>1893650</v>
       </c>
-      <c r="M11">
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11">
         <v>2350</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>15428865</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2159925</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11">
         <v>2703</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>18495139</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>2345980</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>2722</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>20215187</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>2301395</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>2935</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1266,6 +1400,9 @@
       <c r="C12">
         <v>351123</v>
       </c>
+      <c r="D12">
+        <v>5364</v>
+      </c>
       <c r="E12">
         <v>119</v>
       </c>
@@ -1275,6 +1412,9 @@
       <c r="G12">
         <v>376640</v>
       </c>
+      <c r="H12">
+        <v>5364</v>
+      </c>
       <c r="I12">
         <v>128</v>
       </c>
@@ -1284,38 +1424,44 @@
       <c r="K12">
         <v>441053</v>
       </c>
-      <c r="M12">
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12">
         <v>134</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2225002</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>445935</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12">
         <v>123</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>2337499</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>450530</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>117</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>2629151</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>492322</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1325,6 +1471,9 @@
       <c r="C13">
         <v>110702</v>
       </c>
+      <c r="D13">
+        <v>3984</v>
+      </c>
       <c r="E13">
         <v>4337</v>
       </c>
@@ -1334,6 +1483,9 @@
       <c r="G13">
         <v>102747</v>
       </c>
+      <c r="H13">
+        <v>3984</v>
+      </c>
       <c r="I13">
         <v>3511</v>
       </c>
@@ -1343,38 +1495,44 @@
       <c r="K13">
         <v>130739</v>
       </c>
-      <c r="M13">
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13">
         <v>3535</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>21017478</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>166042</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13">
         <v>3745</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>24379023</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>174150</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>3729</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>27412517</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>198773</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>3284</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1384,6 +1542,9 @@
       <c r="C14">
         <v>87172</v>
       </c>
+      <c r="D14">
+        <v>2525</v>
+      </c>
       <c r="E14">
         <v>4589</v>
       </c>
@@ -1393,6 +1554,9 @@
       <c r="G14">
         <v>137094</v>
       </c>
+      <c r="H14">
+        <v>2525</v>
+      </c>
       <c r="I14">
         <v>5010</v>
       </c>
@@ -1402,38 +1566,44 @@
       <c r="K14">
         <v>106433</v>
       </c>
-      <c r="M14">
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
         <v>5471</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>5988062</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>130435</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14">
         <v>5802</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>6799242</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>233002</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>6024</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>7128027</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>228200</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>6313</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1443,6 +1613,9 @@
       <c r="C15">
         <v>376736</v>
       </c>
+      <c r="D15">
+        <v>915</v>
+      </c>
       <c r="E15">
         <v>663</v>
       </c>
@@ -1452,7 +1625,9 @@
       <c r="G15">
         <v>400583</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="2">
+        <v>915</v>
+      </c>
       <c r="I15">
         <v>638</v>
       </c>
@@ -1462,38 +1637,44 @@
       <c r="K15">
         <v>453616</v>
       </c>
-      <c r="M15">
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15">
         <v>717</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>14604888</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>484518</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15">
         <v>679</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>15646048</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>500284</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>680</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>14715586</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>414249</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>740</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1503,6 +1684,9 @@
       <c r="C16">
         <v>54697</v>
       </c>
+      <c r="D16">
+        <v>239</v>
+      </c>
       <c r="E16">
         <v>220</v>
       </c>
@@ -1512,6 +1696,9 @@
       <c r="G16">
         <v>54475</v>
       </c>
+      <c r="H16" s="2">
+        <v>239</v>
+      </c>
       <c r="I16">
         <v>232</v>
       </c>
@@ -1521,38 +1708,44 @@
       <c r="K16">
         <v>48099</v>
       </c>
-      <c r="M16">
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16">
         <v>238</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>13071531</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>71593</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16">
         <v>235</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>12427122</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>78802</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>294</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>13642402</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>60845</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1562,6 +1755,9 @@
       <c r="C17">
         <v>5803</v>
       </c>
+      <c r="D17">
+        <v>278</v>
+      </c>
       <c r="E17">
         <v>5480</v>
       </c>
@@ -1571,6 +1767,9 @@
       <c r="G17">
         <v>8303</v>
       </c>
+      <c r="H17">
+        <v>278</v>
+      </c>
       <c r="I17">
         <v>5339</v>
       </c>
@@ -1580,38 +1779,44 @@
       <c r="K17">
         <v>15695</v>
       </c>
-      <c r="M17">
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17">
         <v>4965</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>10796286</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>72467</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17">
         <v>4103</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>20421016</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>31909</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>3986</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>20511160</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>45995</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>3836</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1621,6 +1826,9 @@
       <c r="C18">
         <v>174040</v>
       </c>
+      <c r="D18">
+        <v>4866</v>
+      </c>
       <c r="E18">
         <v>3623</v>
       </c>
@@ -1630,6 +1838,9 @@
       <c r="G18">
         <v>229733</v>
       </c>
+      <c r="H18">
+        <v>4866</v>
+      </c>
       <c r="I18">
         <v>3409</v>
       </c>
@@ -1639,38 +1850,44 @@
       <c r="K18">
         <v>380995</v>
       </c>
-      <c r="M18">
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18">
         <v>3598</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>84107390</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>574005</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18">
         <v>3849</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>94052729</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>595359</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>3960</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>98010140</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>636378</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>4244</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1680,6 +1897,9 @@
       <c r="C19">
         <v>598929</v>
       </c>
+      <c r="D19">
+        <v>8648</v>
+      </c>
       <c r="E19">
         <v>2310</v>
       </c>
@@ -1689,6 +1909,9 @@
       <c r="G19">
         <v>548737</v>
       </c>
+      <c r="H19">
+        <v>8648</v>
+      </c>
       <c r="I19">
         <v>2450</v>
       </c>
@@ -1698,38 +1921,44 @@
       <c r="K19">
         <v>659265</v>
       </c>
-      <c r="M19">
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19">
         <v>2382</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>9381455</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>732985</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19">
         <v>2041</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>10076854</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>793696</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>2314</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>10857811</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>858143</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>2289</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1739,6 +1968,9 @@
       <c r="C20">
         <v>1699</v>
       </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
       <c r="E20">
         <v>0</v>
       </c>
@@ -1748,6 +1980,9 @@
       <c r="G20">
         <v>4309</v>
       </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
       <c r="I20">
         <v>1</v>
       </c>
@@ -1757,38 +1992,44 @@
       <c r="K20">
         <v>1512</v>
       </c>
-      <c r="M20">
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>9424</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>567</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20">
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>4417</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>580</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>0</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>4784</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>371</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1798,6 +2039,9 @@
       <c r="C21">
         <v>251733</v>
       </c>
+      <c r="D21">
+        <v>2025</v>
+      </c>
       <c r="E21">
         <v>13983</v>
       </c>
@@ -1807,6 +2051,9 @@
       <c r="G21">
         <v>200819</v>
       </c>
+      <c r="H21">
+        <v>2025</v>
+      </c>
       <c r="I21">
         <v>13395</v>
       </c>
@@ -1816,38 +2063,44 @@
       <c r="K21">
         <v>250430</v>
       </c>
-      <c r="M21">
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21">
         <v>12953</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>44119820</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>269559</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21">
         <v>14434</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>53197209</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>275930</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>14661</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>63110709</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>280333</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>15494</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1857,6 +2110,9 @@
       <c r="C22">
         <v>2056913</v>
       </c>
+      <c r="D22">
+        <v>19327</v>
+      </c>
       <c r="E22">
         <v>7980</v>
       </c>
@@ -1866,6 +2122,9 @@
       <c r="G22">
         <v>1999320</v>
       </c>
+      <c r="H22">
+        <v>19327</v>
+      </c>
       <c r="I22">
         <v>7556</v>
       </c>
@@ -1875,38 +2134,44 @@
       <c r="K22">
         <v>5083126</v>
       </c>
-      <c r="M22">
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22">
         <v>7509</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>55333467</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>4815421</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22">
         <v>7159</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>66330229</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>5120287</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>7110</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>82700556</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>4156343</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>7315</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1916,6 +2181,9 @@
       <c r="C23">
         <v>354</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
         <v>31</v>
       </c>
@@ -1925,6 +2193,9 @@
       <c r="G23">
         <v>337</v>
       </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="I23">
         <v>28</v>
       </c>
@@ -1934,38 +2205,44 @@
       <c r="K23">
         <v>389</v>
       </c>
-      <c r="M23">
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23">
         <v>29</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>134505</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>578</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23">
         <v>23</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>134541</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>749</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>23</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>140673</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>1908</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1975,6 +2252,9 @@
       <c r="C24">
         <v>4919</v>
       </c>
+      <c r="D24">
+        <v>119</v>
+      </c>
       <c r="E24">
         <v>60</v>
       </c>
@@ -1984,6 +2264,9 @@
       <c r="G24">
         <v>4522</v>
       </c>
+      <c r="H24">
+        <v>119</v>
+      </c>
       <c r="I24">
         <v>77</v>
       </c>
@@ -1993,38 +2276,44 @@
       <c r="K24">
         <v>4177</v>
       </c>
-      <c r="M24">
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24">
         <v>48</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>667504</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>4803</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24">
         <v>54</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>680254</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>5313</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>62</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>691269</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>6773</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2034,6 +2323,9 @@
       <c r="C25">
         <v>902</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
         <v>210</v>
       </c>
@@ -2043,6 +2335,9 @@
       <c r="G25">
         <v>513</v>
       </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25">
         <v>235</v>
       </c>
@@ -2052,38 +2347,44 @@
       <c r="K25">
         <v>731</v>
       </c>
-      <c r="M25">
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25">
         <v>275</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>62174</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>658</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25">
         <v>265</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>64249</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>744</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>248</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>63377</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>800</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2093,6 +2394,9 @@
       <c r="C26">
         <v>1209</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
         <v>112</v>
       </c>
@@ -2102,6 +2406,9 @@
       <c r="G26">
         <v>1423</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="I26">
         <v>126</v>
       </c>
@@ -2111,38 +2418,44 @@
       <c r="K26">
         <v>1132</v>
       </c>
-      <c r="M26">
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26">
         <v>110</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>25391</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2080</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26">
         <v>110</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>35915</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>2489</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>117</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>35638</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>3304</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2152,6 +2465,9 @@
       <c r="C27">
         <v>43966</v>
       </c>
+      <c r="D27">
+        <v>876</v>
+      </c>
       <c r="E27">
         <v>4169</v>
       </c>
@@ -2161,6 +2477,9 @@
       <c r="G27">
         <v>45684</v>
       </c>
+      <c r="H27">
+        <v>876</v>
+      </c>
       <c r="I27">
         <v>3926</v>
       </c>
@@ -2170,38 +2489,44 @@
       <c r="K27">
         <v>50432</v>
       </c>
-      <c r="M27">
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27">
         <v>3854</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>8271257</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>60722</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27">
         <v>3521</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>9052871</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>64719</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>3436</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>9800135</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>66675</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>3340</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2211,6 +2536,9 @@
       <c r="C28">
         <v>6869</v>
       </c>
+      <c r="D28">
+        <v>2297</v>
+      </c>
       <c r="E28">
         <v>96</v>
       </c>
@@ -2220,6 +2548,9 @@
       <c r="G28">
         <v>3184</v>
       </c>
+      <c r="H28">
+        <v>2297</v>
+      </c>
       <c r="I28">
         <v>118</v>
       </c>
@@ -2229,38 +2560,44 @@
       <c r="K28">
         <v>50964</v>
       </c>
-      <c r="M28">
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28">
         <v>129</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>897896</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>52298</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28">
         <v>129</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>981714</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>52931</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>109</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>1000277</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>42624</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2270,6 +2607,9 @@
       <c r="C29">
         <v>60309</v>
       </c>
+      <c r="D29">
+        <v>359</v>
+      </c>
       <c r="E29">
         <v>3397</v>
       </c>
@@ -2279,6 +2619,9 @@
       <c r="G29">
         <v>54039</v>
       </c>
+      <c r="H29">
+        <v>359</v>
+      </c>
       <c r="I29">
         <v>3949</v>
       </c>
@@ -2288,38 +2631,44 @@
       <c r="K29">
         <v>137122</v>
       </c>
-      <c r="M29">
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29">
         <v>5067</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>16416638</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>150958</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29">
         <v>5582</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>19056143</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>143805</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>4905</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>21340888</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>204074</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>5886</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2329,6 +2678,9 @@
       <c r="C30">
         <v>1477646</v>
       </c>
+      <c r="D30">
+        <v>5206</v>
+      </c>
       <c r="E30">
         <v>5471</v>
       </c>
@@ -2338,6 +2690,9 @@
       <c r="G30">
         <v>1073414</v>
       </c>
+      <c r="H30">
+        <v>5206</v>
+      </c>
       <c r="I30">
         <v>5685</v>
       </c>
@@ -2347,38 +2702,44 @@
       <c r="K30">
         <v>1278523</v>
       </c>
-      <c r="M30">
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30">
         <v>5285</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>27137323</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1351974</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30">
         <v>5169</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>28611831</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>1451370</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>4956</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>30298150</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>1437162</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>5319</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2388,6 +2749,9 @@
       <c r="C31">
         <v>19154</v>
       </c>
+      <c r="D31">
+        <v>115</v>
+      </c>
       <c r="E31">
         <v>62</v>
       </c>
@@ -2397,6 +2761,9 @@
       <c r="G31">
         <v>17730</v>
       </c>
+      <c r="H31">
+        <v>115</v>
+      </c>
       <c r="I31">
         <v>65</v>
       </c>
@@ -2406,38 +2773,44 @@
       <c r="K31">
         <v>20757</v>
       </c>
-      <c r="M31">
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
         <v>67</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>552453</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>23602</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S31">
         <v>63</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>558538</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>26489</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>75</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>576749</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>31698</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2447,6 +2820,9 @@
       <c r="C32">
         <v>2029410</v>
       </c>
+      <c r="D32">
+        <v>11699</v>
+      </c>
       <c r="E32">
         <v>4971</v>
       </c>
@@ -2456,6 +2832,9 @@
       <c r="G32">
         <v>2369050</v>
       </c>
+      <c r="H32">
+        <v>11699</v>
+      </c>
       <c r="I32">
         <v>4771</v>
       </c>
@@ -2465,38 +2844,44 @@
       <c r="K32">
         <v>2804504</v>
       </c>
-      <c r="M32">
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32">
         <v>4873</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>137512991</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>3373870</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32">
         <v>4816</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>184136840</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>3561740</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>4508</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>244232487</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>3990490</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>4403</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2506,6 +2891,9 @@
       <c r="C33">
         <v>3577</v>
       </c>
+      <c r="D33">
+        <v>101</v>
+      </c>
       <c r="E33">
         <v>806</v>
       </c>
@@ -2515,6 +2903,9 @@
       <c r="G33">
         <v>4246</v>
       </c>
+      <c r="H33">
+        <v>101</v>
+      </c>
       <c r="I33">
         <v>624</v>
       </c>
@@ -2524,38 +2915,44 @@
       <c r="K33">
         <v>5212</v>
       </c>
-      <c r="M33">
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33">
         <v>547</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>359515</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>6046</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33">
         <v>529</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>361786</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>7840</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>530</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>359586</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <v>11853</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <v>498</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2565,6 +2962,9 @@
       <c r="C34">
         <v>1610089</v>
       </c>
+      <c r="D34">
+        <v>3452</v>
+      </c>
       <c r="E34">
         <v>18202</v>
       </c>
@@ -2574,6 +2974,9 @@
       <c r="G34">
         <v>1532573</v>
       </c>
+      <c r="H34">
+        <v>3452</v>
+      </c>
       <c r="I34">
         <v>21872</v>
       </c>
@@ -2583,38 +2986,44 @@
       <c r="K34">
         <v>1732707</v>
       </c>
-      <c r="M34">
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34">
         <v>22948</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>155430364</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1887095</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34">
         <v>23910</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>168381276</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>1994495</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>22599</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>226531091</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <v>2054420</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <v>23179</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2624,6 +3033,9 @@
       <c r="C35">
         <v>99910</v>
       </c>
+      <c r="D35">
+        <v>1010</v>
+      </c>
       <c r="E35">
         <v>1031</v>
       </c>
@@ -2633,6 +3045,9 @@
       <c r="G35">
         <v>106470</v>
       </c>
+      <c r="H35">
+        <v>1010</v>
+      </c>
       <c r="I35">
         <v>1098</v>
       </c>
@@ -2642,38 +3057,44 @@
       <c r="K35">
         <v>127258</v>
       </c>
-      <c r="M35">
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35">
         <v>1183</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>25946254</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>124653</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35">
         <v>1405</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>26827329</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>124555</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>1387</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>19941128</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <v>97683</v>
       </c>
-      <c r="Y35">
+      <c r="AA35">
         <v>1591</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2683,6 +3104,9 @@
       <c r="C36">
         <v>1133671</v>
       </c>
+      <c r="D36">
+        <v>2796</v>
+      </c>
       <c r="E36">
         <v>4540</v>
       </c>
@@ -2692,6 +3116,9 @@
       <c r="G36">
         <v>1180418</v>
       </c>
+      <c r="H36">
+        <v>2796</v>
+      </c>
       <c r="I36">
         <v>4306</v>
       </c>
@@ -2701,34 +3128,40 @@
       <c r="K36">
         <v>1192187</v>
       </c>
-      <c r="M36">
+      <c r="L36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36">
         <v>4415</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>22256968</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>1213270</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36">
         <v>4379</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>22730205</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>1219610</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>4639</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>25547300</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <v>1245230</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <v>4388</v>
       </c>
     </row>
